--- a/public/uploads/imports/Specialties.xlsx
+++ b/public/uploads/imports/Specialties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Server\OpenServer-5-4-3\OSPanel\domains\agromaster-info\public\uploads\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\agromaster-info\public\uploads\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DD25D-2429-4F5F-8CF2-C78B8D48EB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832F270-EAD1-414A-8B6E-1320451C888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
